--- a/GestorReceitas/Setembro/CAF.xlsx
+++ b/GestorReceitas/Setembro/CAF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797E2D2F-3420-4CAF-A272-D784D3F21C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0BDFA4-9FC9-4DC2-8FB1-5031965D2267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acolhimento" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="187">
   <si>
     <t>Nome</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>Yara Vaz Oliveira</t>
+  </si>
+  <si>
+    <t>Yolanda</t>
+  </si>
+  <si>
+    <t>Zeu</t>
   </si>
 </sst>
 </file>
@@ -936,11 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH144"/>
+  <dimension ref="A1:AH146"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG147" sqref="AG147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7986,6 +7992,28 @@
       <c r="AG144" s="2"/>
       <c r="AH144" s="2"/>
     </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG146" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AH144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7997,8 +8025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView topLeftCell="A105" zoomScale="78" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GestorReceitas/Setembro/CAF.xlsx
+++ b/GestorReceitas/Setembro/CAF.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0BDFA4-9FC9-4DC2-8FB1-5031965D2267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6645A567-EC39-4D0D-963B-6FDADC414A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acolhimento" sheetId="1" r:id="rId1"/>
     <sheet name="Prolongamento" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acolhimento!$A$1:$AH$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acolhimento!$A$1:$AH$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prolongamento!$A$1:$AH$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="187">
   <si>
     <t>Nome</t>
   </si>
@@ -587,10 +598,10 @@
     <t>Yara Vaz Oliveira</t>
   </si>
   <si>
-    <t>Yolanda</t>
-  </si>
-  <si>
-    <t>Zeu</t>
+    <t>Yolanda de Oliveira Pedronho</t>
+  </si>
+  <si>
+    <t>Zoe Kaylane de Oliveira Pedronho</t>
   </si>
 </sst>
 </file>
@@ -942,20 +953,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH146"/>
+  <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG147" sqref="AG147"/>
+    <sheetView topLeftCell="F1" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R29" sqref="R29:AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="34" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="34" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -965,7 +975,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1069,7 +1079,7 @@
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>300362838</v>
       </c>
       <c r="D2" s="2"/>
@@ -1087,21 +1097,11 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2">
-        <v>1</v>
-      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -1121,7 +1121,7 @@
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>303530561</v>
       </c>
       <c r="D3" s="2"/>
@@ -1163,7 +1163,7 @@
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>285738380</v>
       </c>
       <c r="D4" s="2"/>
@@ -1205,7 +1205,7 @@
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>289953316</v>
       </c>
       <c r="D5" s="2"/>
@@ -1261,7 +1261,7 @@
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>300813775</v>
       </c>
       <c r="D6" s="2"/>
@@ -1303,7 +1303,7 @@
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>307498190</v>
       </c>
       <c r="D7" s="2"/>
@@ -1321,11 +1321,21 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -1345,7 +1355,7 @@
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>290649064</v>
       </c>
       <c r="D8" s="2"/>
@@ -1387,7 +1397,7 @@
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>285029908</v>
       </c>
       <c r="D9" s="2"/>
@@ -1445,7 +1455,7 @@
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>294314008</v>
       </c>
       <c r="D10" s="2"/>
@@ -1509,7 +1519,7 @@
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>288824520</v>
       </c>
       <c r="D11" s="2"/>
@@ -1551,7 +1561,7 @@
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>294458310</v>
       </c>
       <c r="D12" s="2"/>
@@ -1593,7 +1603,7 @@
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>303197951</v>
       </c>
       <c r="D13" s="2"/>
@@ -1657,7 +1667,7 @@
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>289996570</v>
       </c>
       <c r="D14" s="2"/>
@@ -1711,7 +1721,7 @@
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>293154252</v>
       </c>
       <c r="D15" s="2"/>
@@ -1753,7 +1763,7 @@
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>291482376</v>
       </c>
       <c r="D16" s="2"/>
@@ -1795,7 +1805,7 @@
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>298828626</v>
       </c>
       <c r="D17" s="2"/>
@@ -1837,7 +1847,7 @@
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>284615846</v>
       </c>
       <c r="D18" s="2"/>
@@ -1879,7 +1889,7 @@
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>306436043</v>
       </c>
       <c r="D19" s="2"/>
@@ -1921,7 +1931,7 @@
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>303282355</v>
       </c>
       <c r="D20" s="2"/>
@@ -1963,7 +1973,7 @@
       <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>306150352</v>
       </c>
       <c r="D21" s="2"/>
@@ -2027,7 +2037,7 @@
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>307019420</v>
       </c>
       <c r="D22" s="2"/>
@@ -2069,7 +2079,7 @@
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>297621556</v>
       </c>
       <c r="D23" s="2"/>
@@ -2113,7 +2123,7 @@
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="2"/>
@@ -2155,7 +2165,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>285685376</v>
       </c>
       <c r="D25" s="2"/>
@@ -2197,7 +2207,7 @@
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>286101386</v>
       </c>
       <c r="D26" s="2"/>
@@ -2263,7 +2273,7 @@
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>305801384</v>
       </c>
       <c r="D27" s="2"/>
@@ -2305,7 +2315,7 @@
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>291209890</v>
       </c>
       <c r="D28" s="2"/>
@@ -2323,21 +2333,43 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="S28" s="2">
+        <v>1</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>1</v>
+      </c>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
+      <c r="AG28" s="2">
+        <v>1</v>
+      </c>
       <c r="AH28" s="2"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -2347,7 +2379,7 @@
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>302609628</v>
       </c>
       <c r="D29" s="2"/>
@@ -2365,38 +2397,18 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2">
-        <v>1</v>
-      </c>
-      <c r="T29" s="2">
-        <v>1</v>
-      </c>
-      <c r="U29" s="2">
-        <v>1</v>
-      </c>
-      <c r="V29" s="2">
-        <v>1</v>
-      </c>
-      <c r="W29" s="2">
-        <v>1</v>
-      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2">
@@ -2411,7 +2423,7 @@
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>292724411</v>
       </c>
       <c r="D30" s="2"/>
@@ -2453,7 +2465,7 @@
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>304866814</v>
       </c>
       <c r="D31" s="2"/>
@@ -2519,7 +2531,7 @@
       <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>288353005</v>
       </c>
       <c r="D32" s="2"/>
@@ -2561,7 +2573,7 @@
       <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>287986489</v>
       </c>
       <c r="D33" s="2"/>
@@ -2603,8 +2615,8 @@
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
+      <c r="C34">
+        <v>306021153</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2667,7 +2679,7 @@
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>294437452</v>
       </c>
       <c r="D35" s="2"/>
@@ -2713,7 +2725,7 @@
       <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>292995962</v>
       </c>
       <c r="D36" s="2"/>
@@ -2755,7 +2767,7 @@
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>287455114</v>
       </c>
       <c r="D37" s="2"/>
@@ -2807,7 +2819,7 @@
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>290483948</v>
       </c>
       <c r="D38" s="2"/>
@@ -2867,7 +2879,7 @@
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>303001879</v>
       </c>
       <c r="D39" s="2"/>
@@ -2909,7 +2921,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>287949320</v>
       </c>
       <c r="D40" s="2"/>
@@ -2951,7 +2963,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>287525422</v>
       </c>
       <c r="D41" s="2"/>
@@ -3017,7 +3029,7 @@
       <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>286049732</v>
       </c>
       <c r="D42" s="2"/>
@@ -3069,7 +3081,7 @@
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>289827167</v>
       </c>
       <c r="D43" s="2"/>
@@ -3111,7 +3123,7 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>298794284</v>
       </c>
       <c r="D44" s="2"/>
@@ -3153,7 +3165,7 @@
       <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>289954339</v>
       </c>
       <c r="D45" s="2"/>
@@ -3195,7 +3207,7 @@
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>290608600</v>
       </c>
       <c r="D46" s="2"/>
@@ -3237,7 +3249,7 @@
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>292458118</v>
       </c>
       <c r="D47" s="2"/>
@@ -3279,7 +3291,7 @@
       <c r="B48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>304586153</v>
       </c>
       <c r="D48" s="2"/>
@@ -3321,7 +3333,7 @@
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>296838098</v>
       </c>
       <c r="D49" s="2"/>
@@ -3363,7 +3375,7 @@
       <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>304289027</v>
       </c>
       <c r="D50" s="2"/>
@@ -3429,7 +3441,7 @@
       <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>295962968</v>
       </c>
       <c r="D51" s="2"/>
@@ -3495,7 +3507,7 @@
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>294858016</v>
       </c>
       <c r="D52" s="2"/>
@@ -3537,7 +3549,7 @@
       <c r="B53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>306677741</v>
       </c>
       <c r="D53" s="2"/>
@@ -3574,13 +3586,13 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="2">
-        <v>300714777</v>
+        <v>41</v>
+      </c>
+      <c r="C54">
+        <v>295256893</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3616,13 +3628,13 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="2">
-        <v>295256893</v>
+        <v>39</v>
+      </c>
+      <c r="C55">
+        <v>285445626</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -3658,13 +3670,13 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="2">
-        <v>285445626</v>
+        <v>45</v>
+      </c>
+      <c r="C56">
+        <v>290188881</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -3700,13 +3712,13 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="2">
-        <v>290188881</v>
+        <v>41</v>
+      </c>
+      <c r="C57">
+        <v>290733480</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -3725,16 +3737,28 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
+      <c r="U57" s="2">
+        <v>1</v>
+      </c>
+      <c r="V57" s="2">
+        <v>1</v>
+      </c>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
+      <c r="AA57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>1</v>
+      </c>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
@@ -3742,13 +3766,13 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="2">
-        <v>290733480</v>
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>300686439</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -3767,28 +3791,16 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="2">
-        <v>1</v>
-      </c>
-      <c r="V58" s="2">
-        <v>1</v>
-      </c>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
@@ -3796,13 +3808,13 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="2">
-        <v>300686439</v>
+        <v>48</v>
+      </c>
+      <c r="C59">
+        <v>294086803</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -3822,8 +3834,12 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
+      <c r="V59" s="2">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2">
+        <v>1</v>
+      </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
@@ -3838,13 +3854,13 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="2">
-        <v>294086803</v>
+      <c r="C60">
+        <v>293669155</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3863,13 +3879,11 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2">
-        <v>1</v>
-      </c>
-      <c r="W60" s="2">
-        <v>1</v>
-      </c>
+      <c r="U60" s="2">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
@@ -3884,13 +3898,13 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="2">
-        <v>293669155</v>
+      <c r="C61">
+        <v>294138170</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -3909,18 +3923,22 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="2">
-        <v>1</v>
-      </c>
+      <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
+      <c r="AA61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>1</v>
+      </c>
       <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
+      <c r="AD61" s="2">
+        <v>1</v>
+      </c>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
@@ -3928,13 +3946,13 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="2">
-        <v>294138170</v>
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>289182573</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -3959,16 +3977,10 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
@@ -3976,13 +3988,13 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="2">
-        <v>289182573</v>
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>324452136</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -4018,13 +4030,13 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="2">
-        <v>324452136</v>
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>288966252</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4060,13 +4072,13 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="2">
-        <v>288966252</v>
+        <v>37</v>
+      </c>
+      <c r="C65">
+        <v>306151197</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4083,32 +4095,54 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
+      <c r="S65" s="2">
+        <v>1</v>
+      </c>
+      <c r="T65" s="2">
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <v>1</v>
+      </c>
+      <c r="V65" s="2">
+        <v>1</v>
+      </c>
+      <c r="W65" s="2">
+        <v>1</v>
+      </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
+      <c r="Z65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>1</v>
+      </c>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
-      <c r="AG65" s="2"/>
+      <c r="AG65" s="2">
+        <v>1</v>
+      </c>
       <c r="AH65" s="2"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="2">
-        <v>306151197</v>
+        <v>48</v>
+      </c>
+      <c r="C66">
+        <v>295955694</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -4125,54 +4159,32 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="2">
-        <v>1</v>
-      </c>
-      <c r="T66" s="2">
-        <v>1</v>
-      </c>
-      <c r="U66" s="2">
-        <v>1</v>
-      </c>
-      <c r="V66" s="2">
-        <v>1</v>
-      </c>
-      <c r="W66" s="2">
-        <v>1</v>
-      </c>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
-      <c r="Z66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-      <c r="AG66" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="2">
-        <v>295955694</v>
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>292614292</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -4208,13 +4220,13 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="2">
-        <v>292614292</v>
+        <v>35</v>
+      </c>
+      <c r="C68">
+        <v>304693057</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -4250,13 +4262,13 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="2">
-        <v>304693057</v>
+        <v>37</v>
+      </c>
+      <c r="C69">
+        <v>300369077</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -4275,30 +4287,48 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
+      <c r="U69" s="2">
+        <v>1</v>
+      </c>
+      <c r="V69" s="2">
+        <v>1</v>
+      </c>
+      <c r="W69" s="2">
+        <v>1</v>
+      </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
+      <c r="Z69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>1</v>
+      </c>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
+      <c r="AG69" s="2">
+        <v>1</v>
+      </c>
       <c r="AH69" s="2"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="2">
-        <v>300369077</v>
+        <v>41</v>
+      </c>
+      <c r="C70">
+        <v>294517022</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -4317,48 +4347,30 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-      <c r="U70" s="2">
-        <v>1</v>
-      </c>
-      <c r="V70" s="2">
-        <v>1</v>
-      </c>
-      <c r="W70" s="2">
-        <v>1</v>
-      </c>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
-      <c r="Z70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
-      <c r="AG70" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="2">
-        <v>294517022</v>
+        <v>39</v>
+      </c>
+      <c r="C71">
+        <v>284684813</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -4372,35 +4384,57 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
+      <c r="P71" s="2">
+        <v>1</v>
+      </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
+      <c r="S71" s="2">
+        <v>1</v>
+      </c>
+      <c r="T71" s="2">
+        <v>1</v>
+      </c>
+      <c r="U71" s="2">
+        <v>1</v>
+      </c>
       <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
+      <c r="W71" s="2">
+        <v>1</v>
+      </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-      <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
+      <c r="Z71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>1</v>
+      </c>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
-      <c r="AG71" s="2"/>
+      <c r="AG71" s="2">
+        <v>1</v>
+      </c>
       <c r="AH71" s="2"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="2">
-        <v>284684813</v>
+        <v>37</v>
+      </c>
+      <c r="C72">
+        <v>303976047</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -4428,7 +4462,9 @@
       <c r="U72" s="2">
         <v>1</v>
       </c>
-      <c r="V72" s="2"/>
+      <c r="V72" s="2">
+        <v>1</v>
+      </c>
       <c r="W72" s="2">
         <v>1</v>
       </c>
@@ -4451,20 +4487,18 @@
       </c>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-      <c r="AG72" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="C73">
+        <v>306282100</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -4478,43 +4512,21 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="2">
-        <v>1</v>
-      </c>
+      <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-      <c r="S73" s="2">
-        <v>1</v>
-      </c>
-      <c r="T73" s="2">
-        <v>1</v>
-      </c>
-      <c r="U73" s="2">
-        <v>1</v>
-      </c>
-      <c r="V73" s="2">
-        <v>1</v>
-      </c>
-      <c r="W73" s="2">
-        <v>1</v>
-      </c>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
-      <c r="Z73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD73" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
@@ -4522,13 +4534,13 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="2">
-        <v>306282100</v>
+        <v>39</v>
+      </c>
+      <c r="C74">
+        <v>319224732</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4564,13 +4576,13 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="2">
-        <v>319224732</v>
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <v>294490094</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -4606,13 +4618,13 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="2">
-        <v>294490094</v>
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>305889605</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -4626,7 +4638,9 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+      <c r="P76" s="2">
+        <v>1</v>
+      </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
@@ -4648,13 +4662,13 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="2">
-        <v>305889605</v>
+        <v>48</v>
+      </c>
+      <c r="C77">
+        <v>325261180</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -4668,37 +4682,53 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="2">
-        <v>1</v>
-      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="2">
+        <v>1</v>
+      </c>
       <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
+      <c r="U77" s="2">
+        <v>1</v>
+      </c>
+      <c r="V77" s="2">
+        <v>1</v>
+      </c>
+      <c r="W77" s="2">
+        <v>1</v>
+      </c>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
+      <c r="Z77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>1</v>
+      </c>
       <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
+      <c r="AD77" s="2">
+        <v>1</v>
+      </c>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
+      <c r="AG77" s="2">
+        <v>1</v>
+      </c>
       <c r="AH77" s="2"/>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="2">
-        <v>325261180</v>
+        <v>39</v>
+      </c>
+      <c r="C78">
+        <v>284925683</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -4715,24 +4745,14 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="2">
-        <v>1</v>
-      </c>
+      <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-      <c r="U78" s="2">
-        <v>1</v>
-      </c>
-      <c r="V78" s="2">
-        <v>1</v>
-      </c>
-      <c r="W78" s="2">
-        <v>1</v>
-      </c>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
-      <c r="Z78" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z78" s="2"/>
       <c r="AA78" s="2">
         <v>1</v>
       </c>
@@ -4745,20 +4765,18 @@
       </c>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
-      <c r="AG78" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="2">
-        <v>284925683</v>
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>290413206</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -4783,16 +4801,10 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
-      <c r="AA79" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB79" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
-      <c r="AD79" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
@@ -4800,13 +4812,13 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" s="2">
-        <v>290413206</v>
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>289567882</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4842,13 +4854,13 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="2">
-        <v>289567882</v>
+      <c r="C81">
+        <v>289279429</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -4884,13 +4896,13 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="2">
-        <v>289279429</v>
+        <v>37</v>
+      </c>
+      <c r="C82">
+        <v>318126885</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -4926,13 +4938,13 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="2">
-        <v>318126885</v>
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>290677599</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -4946,35 +4958,49 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
+      <c r="P83" s="2">
+        <v>1</v>
+      </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
+      <c r="S83" s="2">
+        <v>1</v>
+      </c>
+      <c r="T83" s="2">
+        <v>1</v>
+      </c>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
+      <c r="W83" s="2">
+        <v>1</v>
+      </c>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
+      <c r="Z83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>1</v>
+      </c>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
-      <c r="AG83" s="2"/>
+      <c r="AG83" s="2">
+        <v>1</v>
+      </c>
       <c r="AH83" s="2"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="2">
-        <v>290677599</v>
+        <v>48</v>
+      </c>
+      <c r="C84">
+        <v>298794098</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -4988,49 +5014,35 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="2">
-        <v>1</v>
-      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
-      <c r="S84" s="2">
-        <v>1</v>
-      </c>
-      <c r="T84" s="2">
-        <v>1</v>
-      </c>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
-      <c r="W84" s="2">
-        <v>1</v>
-      </c>
+      <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
-      <c r="Z84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA84" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
-      <c r="AG84" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="2">
-        <v>298794098</v>
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>288453484</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5066,13 +5078,13 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="2">
-        <v>288453484</v>
+        <v>48</v>
+      </c>
+      <c r="C86">
+        <v>294790713</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5108,13 +5120,13 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" s="2">
-        <v>294790713</v>
+        <v>39</v>
+      </c>
+      <c r="C87">
+        <v>285654349</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5128,35 +5140,59 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+      <c r="P87" s="2">
+        <v>1</v>
+      </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
+      <c r="S87" s="2">
+        <v>1</v>
+      </c>
+      <c r="T87" s="2">
+        <v>1</v>
+      </c>
+      <c r="U87" s="2">
+        <v>1</v>
+      </c>
+      <c r="V87" s="2">
+        <v>1</v>
+      </c>
+      <c r="W87" s="2">
+        <v>1</v>
+      </c>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-      <c r="AB87" s="2"/>
-      <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
+      <c r="Z87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="2">
+        <v>1</v>
+      </c>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
-      <c r="AG87" s="2"/>
+      <c r="AG87" s="2">
+        <v>1</v>
+      </c>
       <c r="AH87" s="2"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="2">
-        <v>285654349</v>
+        <v>45</v>
+      </c>
+      <c r="C88">
+        <v>290428718</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5170,59 +5206,35 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
-      <c r="P88" s="2">
-        <v>1</v>
-      </c>
+      <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
-      <c r="S88" s="2">
-        <v>1</v>
-      </c>
-      <c r="T88" s="2">
-        <v>1</v>
-      </c>
-      <c r="U88" s="2">
-        <v>1</v>
-      </c>
-      <c r="V88" s="2">
-        <v>1</v>
-      </c>
-      <c r="W88" s="2">
-        <v>1</v>
-      </c>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
-      <c r="Z88" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA88" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB88" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC88" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD88" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
-      <c r="AG88" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="2">
-        <v>290428718</v>
+        <v>37</v>
+      </c>
+      <c r="C89">
+        <v>298838125</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5236,35 +5248,59 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+      <c r="P89" s="2">
+        <v>1</v>
+      </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
+      <c r="S89" s="2">
+        <v>1</v>
+      </c>
+      <c r="T89" s="2">
+        <v>1</v>
+      </c>
+      <c r="U89" s="2">
+        <v>1</v>
+      </c>
+      <c r="V89" s="2">
+        <v>1</v>
+      </c>
+      <c r="W89" s="2">
+        <v>1</v>
+      </c>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
+      <c r="Z89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>1</v>
+      </c>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
-      <c r="AG89" s="2"/>
+      <c r="AG89" s="2">
+        <v>1</v>
+      </c>
       <c r="AH89" s="2"/>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="2">
-        <v>298838125</v>
+        <v>41</v>
+      </c>
+      <c r="C90">
+        <v>290072883</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5324,13 +5360,13 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="2">
-        <v>290072883</v>
+        <v>48</v>
+      </c>
+      <c r="C91">
+        <v>300252730</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5369,9 +5405,7 @@
       <c r="Z91" s="2">
         <v>1</v>
       </c>
-      <c r="AA91" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA91" s="2"/>
       <c r="AB91" s="2">
         <v>1</v>
       </c>
@@ -5390,13 +5424,13 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="2">
-        <v>300252730</v>
+        <v>35</v>
+      </c>
+      <c r="C92">
+        <v>297031724</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5410,57 +5444,37 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-      <c r="P92" s="2">
-        <v>1</v>
-      </c>
+      <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
-      <c r="S92" s="2">
-        <v>1</v>
-      </c>
-      <c r="T92" s="2">
-        <v>1</v>
-      </c>
-      <c r="U92" s="2">
-        <v>1</v>
-      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
       <c r="V92" s="2">
         <v>1</v>
       </c>
-      <c r="W92" s="2">
-        <v>1</v>
-      </c>
+      <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
-      <c r="Z92" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
-      <c r="AB92" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC92" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD92" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
-      <c r="AG92" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="2">
-        <v>297031724</v>
+        <v>39</v>
+      </c>
+      <c r="C93">
+        <v>289100020</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5480,9 +5494,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
-      <c r="V93" s="2">
-        <v>1</v>
-      </c>
+      <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
@@ -5498,13 +5510,13 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="2">
-        <v>289100020</v>
+        <v>45</v>
+      </c>
+      <c r="C94">
+        <v>292656050</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5524,7 +5536,9 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
+      <c r="V94" s="2">
+        <v>1</v>
+      </c>
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
@@ -5540,13 +5554,13 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="2">
-        <v>292656050</v>
+        <v>41</v>
+      </c>
+      <c r="C95">
+        <v>291519180</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5566,9 +5580,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
-      <c r="V95" s="2">
-        <v>1</v>
-      </c>
+      <c r="V95" s="2"/>
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
@@ -5584,13 +5596,13 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="2">
-        <v>291519180</v>
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <v>299528812</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5604,7 +5616,9 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
+      <c r="P96" s="2">
+        <v>1</v>
+      </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
@@ -5626,13 +5640,13 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="2">
-        <v>299528812</v>
+      <c r="C97">
+        <v>297466747</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5646,9 +5660,7 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
-      <c r="P97" s="2">
-        <v>1</v>
-      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
@@ -5670,13 +5682,13 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="2">
-        <v>297466747</v>
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>288929144</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5712,13 +5724,13 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="2">
-        <v>288929144</v>
+        <v>35</v>
+      </c>
+      <c r="C99">
+        <v>298986752</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5735,32 +5747,54 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
+      <c r="S99" s="2">
+        <v>1</v>
+      </c>
+      <c r="T99" s="2">
+        <v>1</v>
+      </c>
+      <c r="U99" s="2">
+        <v>1</v>
+      </c>
+      <c r="V99" s="2">
+        <v>1</v>
+      </c>
+      <c r="W99" s="2">
+        <v>1</v>
+      </c>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
+      <c r="Z99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="2">
+        <v>1</v>
+      </c>
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
-      <c r="AG99" s="2"/>
+      <c r="AG99" s="2">
+        <v>1</v>
+      </c>
       <c r="AH99" s="2"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" s="2">
-        <v>298986752</v>
+        <v>45</v>
+      </c>
+      <c r="C100">
+        <v>290456495</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5777,54 +5811,32 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
-      <c r="S100" s="2">
-        <v>1</v>
-      </c>
-      <c r="T100" s="2">
-        <v>1</v>
-      </c>
-      <c r="U100" s="2">
-        <v>1</v>
-      </c>
-      <c r="V100" s="2">
-        <v>1</v>
-      </c>
-      <c r="W100" s="2">
-        <v>1</v>
-      </c>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
-      <c r="Z100" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA100" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB100" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC100" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD100" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
-      <c r="AG100" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="2">
-        <v>290456495</v>
+        <v>37</v>
+      </c>
+      <c r="C101">
+        <v>301489769</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5860,13 +5872,13 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" s="2">
-        <v>301489769</v>
+        <v>35</v>
+      </c>
+      <c r="C102">
+        <v>305302639</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5883,32 +5895,52 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
+      <c r="S102" s="2">
+        <v>1</v>
+      </c>
+      <c r="T102" s="2">
+        <v>1</v>
+      </c>
+      <c r="U102" s="2">
+        <v>1</v>
+      </c>
+      <c r="V102" s="2">
+        <v>1</v>
+      </c>
+      <c r="W102" s="2">
+        <v>1</v>
+      </c>
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
+      <c r="Z102" s="2">
+        <v>1</v>
+      </c>
       <c r="AA102" s="2"/>
-      <c r="AB102" s="2"/>
-      <c r="AC102" s="2"/>
-      <c r="AD102" s="2"/>
+      <c r="AB102" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="2">
+        <v>1</v>
+      </c>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
-      <c r="AG102" s="2"/>
+      <c r="AG102" s="2">
+        <v>1</v>
+      </c>
       <c r="AH102" s="2"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="C103">
+        <v>300211163</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5925,52 +5957,32 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
-      <c r="S103" s="2">
-        <v>1</v>
-      </c>
-      <c r="T103" s="2">
-        <v>1</v>
-      </c>
-      <c r="U103" s="2">
-        <v>1</v>
-      </c>
-      <c r="V103" s="2">
-        <v>1</v>
-      </c>
-      <c r="W103" s="2">
-        <v>1</v>
-      </c>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
-      <c r="Z103" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
-      <c r="AB103" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC103" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD103" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
-      <c r="AG103" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C104" s="2">
-        <v>300211163</v>
+      <c r="C104">
+        <v>303728795</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5984,35 +5996,59 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
+      <c r="P104" s="2">
+        <v>1</v>
+      </c>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
+      <c r="S104" s="2">
+        <v>1</v>
+      </c>
+      <c r="T104" s="2">
+        <v>1</v>
+      </c>
+      <c r="U104" s="2">
+        <v>1</v>
+      </c>
+      <c r="V104" s="2">
+        <v>1</v>
+      </c>
+      <c r="W104" s="2">
+        <v>1</v>
+      </c>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
-      <c r="AB104" s="2"/>
-      <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
+      <c r="Z104" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB104" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC104" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="2">
+        <v>1</v>
+      </c>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
-      <c r="AG104" s="2"/>
+      <c r="AG104" s="2">
+        <v>1</v>
+      </c>
       <c r="AH104" s="2"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="2">
-        <v>303728795</v>
+        <v>48</v>
+      </c>
+      <c r="C105">
+        <v>294329528</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6031,9 +6067,7 @@
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
-      <c r="S105" s="2">
-        <v>1</v>
-      </c>
+      <c r="S105" s="2"/>
       <c r="T105" s="2">
         <v>1</v>
       </c>
@@ -6051,9 +6085,7 @@
       <c r="Z105" s="2">
         <v>1</v>
       </c>
-      <c r="AA105" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA105" s="2"/>
       <c r="AB105" s="2">
         <v>1</v>
       </c>
@@ -6072,13 +6104,13 @@
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C106" s="2">
-        <v>294329528</v>
+        <v>35</v>
+      </c>
+      <c r="C106">
+        <v>300637730</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6098,33 +6130,17 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
-      <c r="T106" s="2">
-        <v>1</v>
-      </c>
-      <c r="U106" s="2">
-        <v>1</v>
-      </c>
-      <c r="V106" s="2">
-        <v>1</v>
-      </c>
-      <c r="W106" s="2">
-        <v>1</v>
-      </c>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
-      <c r="Z106" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
-      <c r="AB106" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC106" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD106" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
       <c r="AG106" s="2">
@@ -6134,13 +6150,13 @@
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C107" s="2">
-        <v>300637730</v>
+      <c r="C107">
+        <v>303594306</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6154,9 +6170,7 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
-      <c r="P107" s="2">
-        <v>1</v>
-      </c>
+      <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
@@ -6173,20 +6187,18 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
-      <c r="AG107" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="2">
-        <v>303594306</v>
+        <v>37</v>
+      </c>
+      <c r="C108">
+        <v>298838222</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6200,35 +6212,59 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
+      <c r="P108" s="2">
+        <v>1</v>
+      </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
+      <c r="S108" s="2">
+        <v>1</v>
+      </c>
+      <c r="T108" s="2">
+        <v>1</v>
+      </c>
+      <c r="U108" s="2">
+        <v>1</v>
+      </c>
+      <c r="V108" s="2">
+        <v>1</v>
+      </c>
+      <c r="W108" s="2">
+        <v>1</v>
+      </c>
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-      <c r="AB108" s="2"/>
-      <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
+      <c r="Z108" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA108" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB108" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC108" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD108" s="2">
+        <v>1</v>
+      </c>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
-      <c r="AG108" s="2"/>
+      <c r="AG108" s="2">
+        <v>1</v>
+      </c>
       <c r="AH108" s="2"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C109" s="2">
-        <v>298838222</v>
+        <v>41</v>
+      </c>
+      <c r="C109">
+        <v>291965016</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6242,59 +6278,35 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
-      <c r="P109" s="2">
-        <v>1</v>
-      </c>
+      <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
-      <c r="S109" s="2">
-        <v>1</v>
-      </c>
-      <c r="T109" s="2">
-        <v>1</v>
-      </c>
-      <c r="U109" s="2">
-        <v>1</v>
-      </c>
-      <c r="V109" s="2">
-        <v>1</v>
-      </c>
-      <c r="W109" s="2">
-        <v>1</v>
-      </c>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
-      <c r="Z109" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA109" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB109" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD109" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
-      <c r="AG109" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C110" s="2">
-        <v>291965016</v>
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>289953944</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6308,35 +6320,59 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
+      <c r="P110" s="2">
+        <v>1</v>
+      </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
+      <c r="S110" s="2">
+        <v>1</v>
+      </c>
+      <c r="T110" s="2">
+        <v>1</v>
+      </c>
+      <c r="U110" s="2">
+        <v>1</v>
+      </c>
+      <c r="V110" s="2">
+        <v>1</v>
+      </c>
+      <c r="W110" s="2">
+        <v>1</v>
+      </c>
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
+      <c r="Z110" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB110" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC110" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="2">
+        <v>1</v>
+      </c>
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
-      <c r="AG110" s="2"/>
+      <c r="AG110" s="2">
+        <v>1</v>
+      </c>
       <c r="AH110" s="2"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="2">
-        <v>289953944</v>
+        <v>37</v>
+      </c>
+      <c r="C111">
+        <v>299066630</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6350,59 +6386,35 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
-      <c r="P111" s="2">
-        <v>1</v>
-      </c>
+      <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
-      <c r="S111" s="2">
-        <v>1</v>
-      </c>
-      <c r="T111" s="2">
-        <v>1</v>
-      </c>
-      <c r="U111" s="2">
-        <v>1</v>
-      </c>
-      <c r="V111" s="2">
-        <v>1</v>
-      </c>
-      <c r="W111" s="2">
-        <v>1</v>
-      </c>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
-      <c r="Z111" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA111" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB111" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC111" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD111" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
-      <c r="AG111" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C112" s="2">
-        <v>299066630</v>
+        <v>35</v>
+      </c>
+      <c r="C112">
+        <v>306745321</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6416,35 +6428,59 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
+      <c r="P112" s="2">
+        <v>1</v>
+      </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
+      <c r="S112" s="2">
+        <v>1</v>
+      </c>
+      <c r="T112" s="2">
+        <v>1</v>
+      </c>
+      <c r="U112" s="2">
+        <v>1</v>
+      </c>
+      <c r="V112" s="2">
+        <v>1</v>
+      </c>
+      <c r="W112" s="2">
+        <v>1</v>
+      </c>
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-      <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
+      <c r="Z112" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC112" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="2">
+        <v>1</v>
+      </c>
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
-      <c r="AG112" s="2"/>
+      <c r="AG112" s="2">
+        <v>1</v>
+      </c>
       <c r="AH112" s="2"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="2">
-        <v>306745321</v>
+        <v>41</v>
+      </c>
+      <c r="C113">
+        <v>292633963</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6458,59 +6494,35 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
-      <c r="P113" s="2">
-        <v>1</v>
-      </c>
+      <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
-      <c r="S113" s="2">
-        <v>1</v>
-      </c>
-      <c r="T113" s="2">
-        <v>1</v>
-      </c>
-      <c r="U113" s="2">
-        <v>1</v>
-      </c>
-      <c r="V113" s="2">
-        <v>1</v>
-      </c>
-      <c r="W113" s="2">
-        <v>1</v>
-      </c>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
-      <c r="Z113" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA113" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB113" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC113" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD113" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
-      <c r="AG113" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="2">
-        <v>292633963</v>
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>288849868</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -6546,13 +6558,13 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C115" s="2">
-        <v>288849868</v>
+        <v>35</v>
+      </c>
+      <c r="C115">
+        <v>301633835</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6566,35 +6578,57 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
+      <c r="P115" s="2">
+        <v>1</v>
+      </c>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
+      <c r="S115" s="2">
+        <v>1</v>
+      </c>
       <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
-      <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
+      <c r="U115" s="2">
+        <v>1</v>
+      </c>
+      <c r="V115" s="2">
+        <v>1</v>
+      </c>
+      <c r="W115" s="2">
+        <v>1</v>
+      </c>
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
-      <c r="AA115" s="2"/>
-      <c r="AB115" s="2"/>
-      <c r="AC115" s="2"/>
-      <c r="AD115" s="2"/>
+      <c r="Z115" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB115" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="2">
+        <v>1</v>
+      </c>
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
-      <c r="AG115" s="2"/>
+      <c r="AG115" s="2">
+        <v>1</v>
+      </c>
       <c r="AH115" s="2"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" s="2">
-        <v>301633835</v>
+        <v>41</v>
+      </c>
+      <c r="C116">
+        <v>292689675</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6608,57 +6642,35 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
-      <c r="P116" s="2">
-        <v>1</v>
-      </c>
+      <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
-      <c r="S116" s="2">
-        <v>1</v>
-      </c>
+      <c r="S116" s="2"/>
       <c r="T116" s="2"/>
-      <c r="U116" s="2">
-        <v>1</v>
-      </c>
-      <c r="V116" s="2">
-        <v>1</v>
-      </c>
-      <c r="W116" s="2">
-        <v>1</v>
-      </c>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
-      <c r="Z116" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA116" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB116" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC116" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD116" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
-      <c r="AG116" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C117" s="2">
-        <v>292689675</v>
+        <v>48</v>
+      </c>
+      <c r="C117">
+        <v>294209018</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6694,13 +6706,13 @@
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" s="2">
-        <v>294209018</v>
+        <v>37</v>
+      </c>
+      <c r="C118">
+        <v>300471769</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6736,13 +6748,13 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="2">
-        <v>300471769</v>
+        <v>35</v>
+      </c>
+      <c r="C119">
+        <v>304326852</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -6759,32 +6771,54 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2"/>
-      <c r="V119" s="2"/>
-      <c r="W119" s="2"/>
+      <c r="S119" s="2">
+        <v>1</v>
+      </c>
+      <c r="T119" s="2">
+        <v>1</v>
+      </c>
+      <c r="U119" s="2">
+        <v>1</v>
+      </c>
+      <c r="V119" s="2">
+        <v>1</v>
+      </c>
+      <c r="W119" s="2">
+        <v>1</v>
+      </c>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
-      <c r="AA119" s="2"/>
-      <c r="AB119" s="2"/>
-      <c r="AC119" s="2"/>
-      <c r="AD119" s="2"/>
+      <c r="Z119" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA119" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB119" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD119" s="2">
+        <v>1</v>
+      </c>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
-      <c r="AG119" s="2"/>
+      <c r="AG119" s="2">
+        <v>1</v>
+      </c>
       <c r="AH119" s="2"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="2">
-        <v>304326852</v>
+        <v>50</v>
+      </c>
+      <c r="C120">
+        <v>290242142</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -6801,54 +6835,32 @@
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
-      <c r="S120" s="2">
-        <v>1</v>
-      </c>
-      <c r="T120" s="2">
-        <v>1</v>
-      </c>
-      <c r="U120" s="2">
-        <v>1</v>
-      </c>
-      <c r="V120" s="2">
-        <v>1</v>
-      </c>
-      <c r="W120" s="2">
-        <v>1</v>
-      </c>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
-      <c r="Z120" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA120" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB120" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC120" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD120" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
-      <c r="AG120" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG120" s="2"/>
       <c r="AH120" s="2"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C121" s="2">
-        <v>290242142</v>
+        <v>45</v>
+      </c>
+      <c r="C121">
+        <v>290434122</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -6884,13 +6896,13 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C122" s="2">
-        <v>290434122</v>
+      <c r="C122">
+        <v>292550553</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -6904,35 +6916,59 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
+      <c r="P122" s="2">
+        <v>1</v>
+      </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
-      <c r="V122" s="2"/>
-      <c r="W122" s="2"/>
+      <c r="S122" s="2">
+        <v>1</v>
+      </c>
+      <c r="T122" s="2">
+        <v>1</v>
+      </c>
+      <c r="U122" s="2">
+        <v>1</v>
+      </c>
+      <c r="V122" s="2">
+        <v>1</v>
+      </c>
+      <c r="W122" s="2">
+        <v>1</v>
+      </c>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
-      <c r="Z122" s="2"/>
-      <c r="AA122" s="2"/>
-      <c r="AB122" s="2"/>
-      <c r="AC122" s="2"/>
-      <c r="AD122" s="2"/>
+      <c r="Z122" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA122" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB122" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC122" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="2">
+        <v>1</v>
+      </c>
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
-      <c r="AG122" s="2"/>
+      <c r="AG122" s="2">
+        <v>1</v>
+      </c>
       <c r="AH122" s="2"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C123" s="2">
-        <v>292550553</v>
+        <v>35</v>
+      </c>
+      <c r="C123">
+        <v>306482576</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6946,59 +6982,35 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
-      <c r="P123" s="2">
-        <v>1</v>
-      </c>
+      <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
-      <c r="S123" s="2">
-        <v>1</v>
-      </c>
-      <c r="T123" s="2">
-        <v>1</v>
-      </c>
-      <c r="U123" s="2">
-        <v>1</v>
-      </c>
-      <c r="V123" s="2">
-        <v>1</v>
-      </c>
-      <c r="W123" s="2">
-        <v>1</v>
-      </c>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
-      <c r="Z123" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA123" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB123" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC123" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD123" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
-      <c r="AG123" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG123" s="2"/>
       <c r="AH123" s="2"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="2">
-        <v>306482576</v>
+        <v>39</v>
+      </c>
+      <c r="C124">
+        <v>284853399</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -7012,35 +7024,59 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
+      <c r="P124" s="2">
+        <v>1</v>
+      </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
+      <c r="S124" s="2">
+        <v>1</v>
+      </c>
+      <c r="T124" s="2">
+        <v>1</v>
+      </c>
+      <c r="U124" s="2">
+        <v>1</v>
+      </c>
+      <c r="V124" s="2">
+        <v>1</v>
+      </c>
+      <c r="W124" s="2">
+        <v>1</v>
+      </c>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
-      <c r="AB124" s="2"/>
-      <c r="AC124" s="2"/>
-      <c r="AD124" s="2"/>
+      <c r="Z124" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB124" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC124" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="2">
+        <v>1</v>
+      </c>
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
-      <c r="AG124" s="2"/>
+      <c r="AG124" s="2">
+        <v>1</v>
+      </c>
       <c r="AH124" s="2"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C125" s="2">
-        <v>284853399</v>
+      <c r="C125">
+        <v>287499812</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -7054,59 +7090,35 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
-      <c r="P125" s="2">
-        <v>1</v>
-      </c>
+      <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
-      <c r="S125" s="2">
-        <v>1</v>
-      </c>
-      <c r="T125" s="2">
-        <v>1</v>
-      </c>
-      <c r="U125" s="2">
-        <v>1</v>
-      </c>
-      <c r="V125" s="2">
-        <v>1</v>
-      </c>
-      <c r="W125" s="2">
-        <v>1</v>
-      </c>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
-      <c r="Z125" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA125" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB125" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC125" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD125" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
-      <c r="AG125" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG125" s="2"/>
       <c r="AH125" s="2"/>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="2">
-        <v>287499812</v>
+      <c r="C126">
+        <v>286109921</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -7120,35 +7132,57 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
+      <c r="P126" s="2">
+        <v>1</v>
+      </c>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
+      <c r="T126" s="2">
+        <v>1</v>
+      </c>
+      <c r="U126" s="2">
+        <v>1</v>
+      </c>
+      <c r="V126" s="2">
+        <v>1</v>
+      </c>
+      <c r="W126" s="2">
+        <v>1</v>
+      </c>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
-      <c r="AA126" s="2"/>
-      <c r="AB126" s="2"/>
-      <c r="AC126" s="2"/>
-      <c r="AD126" s="2"/>
+      <c r="Z126" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA126" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB126" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC126" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="2">
+        <v>1</v>
+      </c>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
-      <c r="AG126" s="2"/>
+      <c r="AG126" s="2">
+        <v>1</v>
+      </c>
       <c r="AH126" s="2"/>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" s="2">
-        <v>286109921</v>
+        <v>48</v>
+      </c>
+      <c r="C127">
+        <v>295015160</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -7167,7 +7201,9 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
+      <c r="S127" s="2">
+        <v>1</v>
+      </c>
       <c r="T127" s="2">
         <v>1</v>
       </c>
@@ -7206,13 +7242,13 @@
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C128" s="2">
-        <v>295015160</v>
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>291331734</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -7226,59 +7262,35 @@
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
-      <c r="P128" s="2">
-        <v>1</v>
-      </c>
+      <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
-      <c r="S128" s="2">
-        <v>1</v>
-      </c>
-      <c r="T128" s="2">
-        <v>1</v>
-      </c>
-      <c r="U128" s="2">
-        <v>1</v>
-      </c>
-      <c r="V128" s="2">
-        <v>1</v>
-      </c>
-      <c r="W128" s="2">
-        <v>1</v>
-      </c>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
-      <c r="Z128" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA128" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB128" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC128" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD128" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
-      <c r="AG128" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG128" s="2"/>
       <c r="AH128" s="2"/>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="2">
-        <v>291331734</v>
+        <v>39</v>
+      </c>
+      <c r="C129">
+        <v>286559870</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -7314,13 +7326,13 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" s="2">
-        <v>286559870</v>
+        <v>37</v>
+      </c>
+      <c r="C130">
+        <v>302027238</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -7356,13 +7368,13 @@
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C131" s="2">
-        <v>302027238</v>
+        <v>50</v>
+      </c>
+      <c r="C131">
+        <v>289924723</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -7398,13 +7410,13 @@
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C132" s="2">
-        <v>289924723</v>
+        <v>35</v>
+      </c>
+      <c r="C132">
+        <v>295083212</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -7440,13 +7452,13 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C133" s="2">
-        <v>295083212</v>
+        <v>39</v>
+      </c>
+      <c r="C133">
+        <v>285871544</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -7482,13 +7494,13 @@
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C134" s="2">
-        <v>285871544</v>
+        <v>37</v>
+      </c>
+      <c r="C134">
+        <v>306789825</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -7524,13 +7536,13 @@
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C135" s="2">
-        <v>306789825</v>
+        <v>48</v>
+      </c>
+      <c r="C135">
+        <v>293688036</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7566,13 +7578,13 @@
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C136" s="2">
-        <v>293688036</v>
+        <v>39</v>
+      </c>
+      <c r="C136">
+        <v>287629660</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -7598,7 +7610,9 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
-      <c r="AB136" s="2"/>
+      <c r="AB136" s="2">
+        <v>1</v>
+      </c>
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
       <c r="AE136" s="2"/>
@@ -7608,13 +7622,13 @@
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C137" s="2">
-        <v>287629660</v>
+      <c r="C137">
+        <v>287620778</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -7640,9 +7654,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
-      <c r="AB137" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
       <c r="AE137" s="2"/>
@@ -7652,13 +7664,13 @@
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C138" s="2">
-        <v>287620778</v>
+        <v>45</v>
+      </c>
+      <c r="C138">
+        <v>291624650</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -7694,13 +7706,13 @@
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C139" s="2">
-        <v>291624650</v>
+        <v>41</v>
+      </c>
+      <c r="C139">
+        <v>293160295</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -7717,10 +7729,16 @@
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
+      <c r="S139" s="2">
+        <v>1</v>
+      </c>
+      <c r="T139" s="2">
+        <v>1</v>
+      </c>
       <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
+      <c r="V139" s="2">
+        <v>1</v>
+      </c>
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
@@ -7736,13 +7754,13 @@
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" s="2">
-        <v>293160295</v>
+        <v>39</v>
+      </c>
+      <c r="C140">
+        <v>285360124</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -7756,7 +7774,9 @@
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
+      <c r="P140" s="2">
+        <v>1</v>
+      </c>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
       <c r="S140" s="2">
@@ -7765,32 +7785,48 @@
       <c r="T140" s="2">
         <v>1</v>
       </c>
-      <c r="U140" s="2"/>
+      <c r="U140" s="2">
+        <v>1</v>
+      </c>
       <c r="V140" s="2">
         <v>1</v>
       </c>
-      <c r="W140" s="2"/>
+      <c r="W140" s="2">
+        <v>1</v>
+      </c>
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
-      <c r="Z140" s="2"/>
-      <c r="AA140" s="2"/>
-      <c r="AB140" s="2"/>
-      <c r="AC140" s="2"/>
-      <c r="AD140" s="2"/>
+      <c r="Z140" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA140" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB140" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC140" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD140" s="2">
+        <v>1</v>
+      </c>
       <c r="AE140" s="2"/>
       <c r="AF140" s="2"/>
-      <c r="AG140" s="2"/>
+      <c r="AG140" s="2">
+        <v>1</v>
+      </c>
       <c r="AH140" s="2"/>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C141" s="2">
-        <v>285360124</v>
+        <v>50</v>
+      </c>
+      <c r="C141">
+        <v>325260486</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -7804,9 +7840,7 @@
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
-      <c r="P141" s="2">
-        <v>1</v>
-      </c>
+      <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
       <c r="S141" s="2">
@@ -7815,9 +7849,7 @@
       <c r="T141" s="2">
         <v>1</v>
       </c>
-      <c r="U141" s="2">
-        <v>1</v>
-      </c>
+      <c r="U141" s="2"/>
       <c r="V141" s="2">
         <v>1</v>
       </c>
@@ -7835,9 +7867,7 @@
       <c r="AB141" s="2">
         <v>1</v>
       </c>
-      <c r="AC141" s="2">
-        <v>1</v>
-      </c>
+      <c r="AC141" s="2"/>
       <c r="AD141" s="2">
         <v>1</v>
       </c>
@@ -7850,13 +7880,13 @@
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C142" s="2">
-        <v>325260486</v>
+        <v>45</v>
+      </c>
+      <c r="C142">
+        <v>319224287</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -7873,50 +7903,32 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
-      <c r="S142" s="2">
-        <v>1</v>
-      </c>
-      <c r="T142" s="2">
-        <v>1</v>
-      </c>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
       <c r="U142" s="2"/>
-      <c r="V142" s="2">
-        <v>1</v>
-      </c>
-      <c r="W142" s="2">
-        <v>1</v>
-      </c>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
-      <c r="Z142" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA142" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB142" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
+      <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
-      <c r="AD142" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD142" s="2"/>
       <c r="AE142" s="2"/>
       <c r="AF142" s="2"/>
-      <c r="AG142" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG142" s="2"/>
       <c r="AH142" s="2"/>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C143" s="2">
-        <v>319224287</v>
+        <v>35</v>
+      </c>
+      <c r="C143">
+        <v>303919655</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -7951,71 +7963,39 @@
       <c r="AH143" s="2"/>
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>184</v>
+      <c r="A144" t="s">
+        <v>185</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144">
+        <v>328233382</v>
+      </c>
+      <c r="AG144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C144" s="2">
-        <v>303919655</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
-      <c r="U144" s="2"/>
-      <c r="V144" s="2"/>
-      <c r="W144" s="2"/>
-      <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
-      <c r="AA144" s="2"/>
-      <c r="AB144" s="2"/>
-      <c r="AC144" s="2"/>
-      <c r="AD144" s="2"/>
-      <c r="AE144" s="2"/>
-      <c r="AF144" s="2"/>
-      <c r="AG144" s="2"/>
-      <c r="AH144" s="2"/>
-    </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>45</v>
+      <c r="C145">
+        <v>328390628</v>
       </c>
       <c r="AG145" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG146" s="1">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AH144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AH1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH146">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -8025,8 +8005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH144"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="78" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
